--- a/朱玉兰_Contacts.xlsx
+++ b/朱玉兰_Contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,6 +3653,1606 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>沈帅</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1960-12-28</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>15576521460</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>vtian@example.org</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>数字100信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>葛林</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1997-12-16</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>13965410436</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>fangjin@example.org</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>惠派国际公司科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>钟琳</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1984-05-05</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>13142815250</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>guiying44@example.net</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>最后大学; 基本学</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>宋雪梅</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1961-06-23</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>13947493932</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>qianxiuying@example.com</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>维旺明网络有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>黄淑珍</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1977-09-04</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>15086502569</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>jieyi@example.net</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>是否技术投资图片然后文件能够.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>李淑华</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1977-05-09</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>15275792965</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>fang21@example.org</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>其中点击只要商品.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>陈雪梅</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1958-05-13</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>13087634834</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>longjun@example.net</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>可能活动之后图片.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>李丽娟</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1960-10-29</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>15626704510</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>hcheng@example.org</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>自己大学; 助教; 次数深圳包括相关男人觉得音乐.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>徐秀荣</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1993-06-27</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>13877134267</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>hanlei@example.com</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>系列大学; 分析学</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>傅龙</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2000-11-11</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>15238218840</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>uwen@example.net</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>如何大学; 教授; 更新只有文件有限能力.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>丁小红</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1991-08-16</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>15526373856</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>dsu@example.com</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>诺依曼软件传媒有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>罗桂珍</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1968-10-10</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>18521071863</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>xialiu@example.org</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>完全过程一定应该.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>戴伟</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1980-08-18</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>15345161517</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>gang29@example.com</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>泰麒麟网络有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>崔岩</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1980-09-10</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>14577014666</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>gang34@example.net</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>堂兄</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>廖飞</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1984-09-11</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>15922423049</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>sfeng@example.net</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>以上最新只是以及原因.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>王明</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2000-01-28</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>13821189646</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>htao@example.net</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>历史大学; 到了学</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>韦芳</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2004-12-30</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>13548985228</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>jing25@example.net</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>简介大学; 助教; 美国一直人员发展浏览.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>刘淑兰</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1975-09-08</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>13244896438</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ganghao@example.com</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>各种大学; 讲师; 国际增加价格什么.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>蒋凤兰</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1958-07-05</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>13775616457</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>zhangna@example.net</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>大学已经系列这是设备所有可以.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>傅文</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1988-10-26</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>13947151292</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>vkang@example.net</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>艾提科信信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>陈雷</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1997-04-23</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>15691416465</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>fwan@example.net</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>生活大学; 助教; 人民用户部门都是记者下载.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>何秀珍</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1975-10-21</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>15279848245</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>cgao@example.net</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>已经大学; 教授; 计划直接科技参加的人不断.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>贾彬</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1980-05-04</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>15907927591</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>nafan@example.com</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>结果大学; 讲师; 设计公司说明评论可是作为.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>朱建军</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1965-07-14</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>15914734539</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>xiuyingzhou@example.net</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>大家本站相关本站名称.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>皮超</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1996-11-14</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>15913998066</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>lxiang@example.org</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>彭桂兰</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1985-11-02</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>15839939889</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>gang14@example.com</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>正在大学; 开发学</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>李文</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1960-03-18</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>18841794257</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>zdu@example.net</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>富罳信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>龙东</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1969-09-15</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>13938830928</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>yongdu@example.net</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>经济大学; 你的学</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>王娟</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1974-09-13</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>13991738504</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>yangsun@example.net</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>质量大学; 资料学</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>张林</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1968-02-22</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>14506600729</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>chengyan@example.net</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>看到大学; 副教授; 还有单位参加控制最后.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>蔺秀荣</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2002-10-15</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>15852147300</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>minpan@example.com</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>现在大学; 讲师; 这个可能到了业务历史其中.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>王秀梅</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1964-07-08</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>15125494097</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>gwan@example.com</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>一次网站必须东西由于.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>陈婷</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2000-06-06</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>15525485156</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>tianming@example.org</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>华瑜</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1959-10-15</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13190771493</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>wangjing@example.net</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>支持大学; 讲师; 报告控制加入会员重要东西支持.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>钟岩</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1987-05-11</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>15674722770</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>weiyan@example.net</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>介绍大学; 到了学</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>王丽娟</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1982-11-08</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>18255323191</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>liaojuan@example.org</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>所有电脑类别就是这是.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>李建国</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1969-11-27</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>15823802484</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>wanguiying@example.net</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>这个大学; 教授; 有关工具主要文件.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>杜坤</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1975-11-09</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>13054245130</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>yanding@example.com</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>超艺传媒有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>邹瑞</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1976-06-17</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>15533907510</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>juan73@example.net</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>研究大学; 助教; 怎么北京开始用户.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>张军</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1996-06-05</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>18923378168</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>emo@example.net</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>同学</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>向春梅</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2003-01-08</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>15769864256</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>yangqifanbq@gmail.com</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>北京大学; 两个学</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>杨慧</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1975-03-24</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>15541424390</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>jtan@example.com</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>开发区世创科技有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>吕桂珍</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1975-12-14</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>15960276802</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>pmao@example.com</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>表姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>黄婷</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1962-03-28</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>13089165201</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>min77@example.org</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>支持点击因为.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>杨博</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1986-09-25</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>15620726703</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>fanglai@example.net</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>陈丽</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1993-03-18</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>15819137765</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>lyuan@example.net</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>表弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>胡桂荣</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1998-01-16</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>15336121763</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>qianghou@example.com</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>艾提科信信息有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>亲戚</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>李建国</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1981-03-01</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>18056906167</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>yan77@example.org</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>堂兄</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>老师</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>刘雪</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1965-09-17</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>13931643635</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>xiulan40@example.net</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>设计大学; 教授; 就是发展网上活动.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>同事</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>刘雪</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1989-01-09</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>14790176682</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>longping@example.net</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>天开传媒有限公司</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
